--- a/ToDoApp-Doc/Document/Diagram/UseCase/ManagementTask/ManagementTask Specification.xlsx
+++ b/ToDoApp-Doc/Document/Diagram/UseCase/ManagementTask/ManagementTask Specification.xlsx
@@ -4,50 +4,53 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7830" firstSheet="9" activeTab="9"/>
+    <workbookView windowWidth="19815" windowHeight="7830" firstSheet="18" activeTab="22"/>
   </bookViews>
   <sheets>
-    <sheet name="Manage Task" sheetId="11" r:id="rId1"/>
-    <sheet name="Set Priority" sheetId="15" r:id="rId2"/>
-    <sheet name="Set Tag" sheetId="16" r:id="rId3"/>
-    <sheet name="Undo Task" sheetId="17" r:id="rId4"/>
-    <sheet name="Favorite" sheetId="18" r:id="rId5"/>
-    <sheet name="Drag &amp; Drop" sheetId="19" r:id="rId6"/>
-    <sheet name="Copy &amp; paste mutiple lines" sheetId="20" r:id="rId7"/>
-    <sheet name="Add Website as Task" sheetId="21" r:id="rId8"/>
-    <sheet name="Rich Text" sheetId="22" r:id="rId9"/>
-    <sheet name="Group by Tag" sheetId="23" r:id="rId10"/>
-    <sheet name="Group by End day" sheetId="24" r:id="rId11"/>
-    <sheet name="Filter Query" sheetId="25" r:id="rId12"/>
-    <sheet name="Set Layout" sheetId="26" r:id="rId13"/>
-    <sheet name="Set Layout Board" sheetId="27" r:id="rId14"/>
-    <sheet name="Set Layout List" sheetId="28" r:id="rId15"/>
-    <sheet name="Search information" sheetId="29" r:id="rId16"/>
-    <sheet name="Sort by" sheetId="30" r:id="rId17"/>
-    <sheet name="Sort by name" sheetId="31" r:id="rId18"/>
-    <sheet name="Sort by date" sheetId="32" r:id="rId19"/>
-    <sheet name="Group by" sheetId="33" r:id="rId20"/>
-    <sheet name="Group by Section" sheetId="34" r:id="rId21"/>
-    <sheet name="Group by Priority" sheetId="35" r:id="rId22"/>
-    <sheet name="Group by Progress" sheetId="36" r:id="rId23"/>
+    <sheet name="Create Task" sheetId="11" r:id="rId1"/>
+    <sheet name="Read Task" sheetId="37" r:id="rId2"/>
+    <sheet name="Delete Task" sheetId="38" r:id="rId3"/>
+    <sheet name="Update Task" sheetId="40" r:id="rId4"/>
+    <sheet name="Set Priority" sheetId="15" r:id="rId5"/>
+    <sheet name="Set Tag" sheetId="16" r:id="rId6"/>
+    <sheet name="Favorite" sheetId="18" r:id="rId7"/>
+    <sheet name="Undo Task" sheetId="17" r:id="rId8"/>
+    <sheet name="Add Website as Task" sheetId="21" r:id="rId9"/>
+    <sheet name="Rich Text" sheetId="22" r:id="rId10"/>
+    <sheet name="Drag &amp; Drop" sheetId="19" r:id="rId11"/>
+    <sheet name="Copy &amp; paste mutiple lines" sheetId="20" r:id="rId12"/>
+    <sheet name="Group by" sheetId="33" r:id="rId13"/>
+    <sheet name="Group by Section" sheetId="34" r:id="rId14"/>
+    <sheet name="Group by Priority" sheetId="35" r:id="rId15"/>
+    <sheet name="Group by Progress" sheetId="36" r:id="rId16"/>
+    <sheet name="Group by Tag" sheetId="23" r:id="rId17"/>
+    <sheet name="Group by End date" sheetId="24" r:id="rId18"/>
+    <sheet name="Filter Query" sheetId="25" r:id="rId19"/>
+    <sheet name="Set Layout" sheetId="26" r:id="rId20"/>
+    <sheet name="Set Layout Board" sheetId="27" r:id="rId21"/>
+    <sheet name="Set Layout List" sheetId="28" r:id="rId22"/>
+    <sheet name="Search information" sheetId="29" r:id="rId23"/>
+    <sheet name="Sort by" sheetId="30" r:id="rId24"/>
+    <sheet name="Sort by name" sheetId="31" r:id="rId25"/>
+    <sheet name="Sort by date" sheetId="32" r:id="rId26"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="274">
   <si>
     <t>Use-case number:</t>
   </si>
   <si>
-    <t>ID của chức năng</t>
+    <t>UC 3.1</t>
   </si>
   <si>
     <t>Use-case name:</t>
   </si>
   <si>
-    <t>Manage Task</t>
+    <t>Create Task</t>
   </si>
   <si>
     <t>Actor(s)</t>
@@ -59,10 +62,10 @@
     <t>Summary</t>
   </si>
   <si>
-    <t xml:space="preserve">Chức năng dùng để hiển thị, thêm, sửa, xóa task </t>
-  </si>
-  <si>
-    <t>Basle course of events:</t>
+    <t>Chức năng dùng để thêm task mới</t>
+  </si>
+  <si>
+    <t>Basic course of events:</t>
   </si>
   <si>
     <t>Actor actions</t>
@@ -71,302 +74,666 @@
     <t>System response</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Người dùng truy cập vào Section hoặc Project
- - Hệ thống hiển thị danh sách các task đang có trong section hoặc project đó
-*
- - Người dùng nhấp vào "Add Task" nếu muốn tạo task mới
- - Hệ thống sẽ hiển thị form để người dùng thao tác
- - Người dùng nhập tên task và các giá trị không bắt buộc khác như Priority, Tag, Favorite, Add Website as Task, Rich Text
- - Hệ thống ghi nhận lại các thông tin của task
- - Người dùng nhấp "Save"
- - Hệ thống sẽ tạo ra task mới cho người dùng và lưu xuống CSDL
- - Người dùng nhấp "Cancel"
- - Hệ thống sẽ hủy bỏ ghi nhận thông tin task do người dùng nhập vào và không lưu xuống CSDL
-*
- - Người dùng nhấp chọn "More Actions" của task cụ thể
- - Hệ thống sẽ hiển thị danh sách các tùy chọn
- - 1. Người dùng nhấp chọn "Update"
- - Hệ thống sẽ mở form update để người dùng chỉnh sửa thông tin task
- - Người dùng chỉnh sửa thông tin của task
- - Hệ thống sẽ ghi nhận lại thông tin
-*
- - 1.1 Người dùng nhấp "Save"
- - Hệ thống sẽ cập nhật lại thông tin của task  và lưu xuống CSDL
- - 1.2 Người dùng nhấp "Cancel"
- - Hệ thống sẽ hủy việc ghi nhận
-*
- - 2. Người dùng nhấp chọn "Delete"
- - Hệ thống hiển thị hộp thoại xác nhận việc xóa task
-*
- - 2.1 Người dùng nhấp "Yes"
- - Hệ thống sẽ thay đổi trạng thái task, lưu xuống CSDL và xóa task trên màn hình
- - 2.2 Người dùng nhấp "No"
- - Hệ thống giữ nguyên hiện trạng và tắt hộp thoại xác nhận</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng truy cập vào Section hoặc Project
+    <t xml:space="preserve"> - Người dùng nhấp vào "Add task" nếu muốn tạo ra task mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống sẽ hiển thị form để người dùng thao tác</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Người dùng nhập tên task </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Hệ thống kiểm tra tên task </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Người dùng nhấp "Save" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống sẽ tạo ra task mới cho người dùng và lưu xuống CSDL</t>
+  </si>
+  <si>
+    <t>Alternative paths:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Người dùng có thể nhấp chọn "Cancel" để hủy ghi nhận</t>
+    </r>
+  </si>
+  <si>
+    <t>Exception paths:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Kiểm tra tên task đã tồn tại hay chưa. Nếu tồn tại thì thông báo cho người dùng</t>
+    </r>
+  </si>
+  <si>
+    <t>Extension points:</t>
+  </si>
+  <si>
+    <t>Không có</t>
+  </si>
+  <si>
+    <t>Triggers:</t>
+  </si>
+  <si>
+    <t>Người dùng muốn tạo task mới</t>
+  </si>
+  <si>
+    <t>Pre-condition:</t>
+  </si>
+  <si>
+    <t>Tên task phải hơp lệ</t>
+  </si>
+  <si>
+    <t>Post-condition:</t>
+  </si>
+  <si>
+    <t>Danh sách task có thêm task mới</t>
+  </si>
+  <si>
+    <t>UC 3.2</t>
+  </si>
+  <si>
+    <t>Read Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng dùng để hiển thị danh sách task </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấp chọn Section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống hiển thị danh sách các task đang có trong section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có bug trong hệ thống cản trở việc thực thi của người dùng </t>
+  </si>
+  <si>
+    <t>Người dùng muốn xem danh sách task</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp chọn Section cụ thể</t>
+  </si>
+  <si>
+    <t>Thông tin task bị thay đổi dưới CSDL</t>
+  </si>
+  <si>
+    <t>UC 3.3</t>
+  </si>
+  <si>
+    <t>Delete Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng dùng để xóa task </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấp chọn "Delete"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống hiển thị hộp thoại xác nhận việc xóa task</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Người dùng nhấp "Yes" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống sẽ thay đổi trạng thái task, lưu xuống CSDL và xóa task trên màn hình</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>: Người dùng có thể nhấp chọn "No" để hủy bỏ thao tác xóa task</t>
+    </r>
+  </si>
+  <si>
+    <t>Người dùng muốn xóa task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Người dùng nhấp chọn "Yes"</t>
+  </si>
+  <si>
+    <t>Danh sách task sau khi xóa task</t>
+  </si>
+  <si>
+    <t>UC 3.4</t>
+  </si>
+  <si>
+    <t>Update Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng dùng để cập nhật task </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấp chọn "More Actions" của task cụ thể</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống sẽ hiển thị danh sách các tùy chọn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Người dùng nhấp chọn "Update"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống sẽ mở form update để người dùng chỉnh sửa thông tin task</t>
+  </si>
+  <si>
+    <t>- Người dùng chỉnh sửa thông tin của task</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Người dùng nhấp "Save" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+  </si>
+  <si>
+    <t>- Hệ thống sẽ cập nhật lại thông tin của task và lưu xuống CSDL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Người dùng có thể nhấp chọn "Cancel" để hủy ghi nhận</t>
+    </r>
+  </si>
+  <si>
+    <t>Người dùng muốn cập nhật thông tin task</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp "Save"</t>
+  </si>
+  <si>
+    <t>Task đã cập nhật thông tin</t>
+  </si>
+  <si>
+    <t>UC 3.5</t>
+  </si>
+  <si>
+    <t>Set Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng thiết lập độ ưu tiên của Task </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấp "Update" của task cần thiết lập độ ưu tiên </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống hiển thị form của người dùng thao tác trên task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng chọn mức độ ưu tiên của Task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống ghi nhận thông tin của Task </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống lưu mức độ ưu tiên của task xuống CSDL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ngươi dùng có thể nhấp chọn "Cancel" để hủy ghi nhận</t>
+    </r>
+  </si>
+  <si>
+    <t>Mức độ ưu tiên mà người dùng thiết lập từ 0-4</t>
+  </si>
+  <si>
+    <t>Người dùng thiết lập mức độ ưu tiên</t>
+  </si>
+  <si>
+    <t>Mức độ ưu tiên của Task được lưu xuống CSDL</t>
+  </si>
+  <si>
+    <t>UC 3.6</t>
+  </si>
+  <si>
+    <t>Set Tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chức năng thiết lập phân loại Task </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Người dùng nhấp "Update" của task cần thiết lập phân loại </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> -  Người dùng chọn phân loại task</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Người dùng nhấp "Save" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Người dùng có thể nhấn "Add Tag" để thêm tag mới</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+A2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Người dùng có thể nhấp chọn "Cancel" để hủy ghi nhận</t>
+    </r>
+  </si>
+  <si>
+    <t>Người dùng cài đặt phân loại task</t>
+  </si>
+  <si>
+    <t>Phân loại Task được lưu xuống CSDL</t>
+  </si>
+  <si>
+    <t>UC 3.7</t>
+  </si>
+  <si>
+    <t>Favorite</t>
+  </si>
+  <si>
+    <t>Chức năng đánh dấu những task yêu thích</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấp "Update" của task cần đánh dấu yêu thích</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấn vào biểu tượng favorite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Hệ thống hiển thị danh sách các task đang có trong section hoặc project đó
+    <t>Người dùng nhấn vào biểu tượng Favaorite</t>
+  </si>
+  <si>
+    <t>Trạng thái task favorite của task bị thay đổi dưới CSDL</t>
+  </si>
+  <si>
+    <t>UC 3.8</t>
+  </si>
+  <si>
+    <t>Undo Task</t>
+  </si>
+  <si>
+    <t>Chức năng hoàn tác task đã hoàn thành</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấn hoàn thành task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống thay đổi trạng thái task thành đã hoàn thành và hiển thị hộp thoại Undo </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> -  Người dùng nhấn "Undo" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống thay đổi trạng thái task thành chưa hoàn thành và không lưu xuống CSDL</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">A1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Ngươi dùng có thể nhấp chọn "Cancel" để hộp thoại tự tắt sau một thời gian và lưu xuống trạng thái task xuống CSDL</t>
+    </r>
+  </si>
+  <si>
+    <t>Hộp thoại Undo Task tự tắt sau 5 giây</t>
+  </si>
+  <si>
+    <t>Người dùng muốn hoàn tác hoàn thành</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp "Undo"</t>
+  </si>
+  <si>
+    <t>Trạng thái task không bị thay đổi sau khi Undo Task</t>
+  </si>
+  <si>
+    <t>UC 3.11</t>
+  </si>
+  <si>
+    <t>Add Website as Task</t>
+  </si>
+  <si>
+    <t>Chức năng kéo chèn đường dẫn website vào task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấp "Update" của task cần chèn đường dẫn website vào task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống hiển thị form người dùng thao tác</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng thêm đường dẫn đến website vào task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thông ghi nhận</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> - Người dùng nhấn "Save" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Người dùng nhấp vào "Add task" nếu muốn tạo ra task mới
-  - Người dùng nhập tên task và các giá trị không bắt buộc khác như Priority, Tag, Favorite, Add Website as Task, Rich Text
- - Người dùng nhấp "Save"
- - Người dùng nhấp "Cancel"
+    <t xml:space="preserve"> - Hệ thống lưu trữ thông tin xuống CSDL</t>
+  </si>
+  <si>
+    <t>Người dùng thêm đường dẫn vào task, lưu lại thì khi nhấn vào đường dẫn thì sẽ mở website đó lên bằng tab mới</t>
+  </si>
+  <si>
+    <t>Người dùng nhập đường dẫn vào task</t>
+  </si>
+  <si>
+    <t>Đường dẫn website của task được lưu xuống CSDL</t>
+  </si>
+  <si>
+    <t>UC 3.12</t>
+  </si>
+  <si>
+    <t>Rich Text</t>
+  </si>
+  <si>
+    <t>Chức năng thêm siêu văn bản vào task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấp "Update" của task cần thêm siêu văn bản vào task</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng thêm siêu văn bản vào task</t>
+  </si>
+  <si>
+    <t>Người dùng thêm siêu văn bản vào task</t>
+  </si>
+  <si>
+    <t>Siêu văn bản của task được lưu xuống CSDL</t>
+  </si>
+  <si>
+    <t>UC 3.9</t>
+  </si>
+  <si>
+    <t>Drag &amp; Drop</t>
+  </si>
+  <si>
+    <t>Chức năng kéo thả các task trong section</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấn Task cụ thể sau đó giữ chuột</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống cho phép di chuyển</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng di chuyển task tới vị trí mong muốn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống di chuyển task trên màn hình theo con trỏ chuột</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng thả chuột</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> - Hệ thống sẽ hiển thị form để người dùng thao tác
- - Hệ thống ghi nhận lại thông tin của task
- - Hệ thống sẽ tạo ra task mới cho người dùng và lưu xuống CSDL
- - Hệ thống sẽ hủy bỏ ghi nhận thông tin task do người dùng nhập vào và không lưu xuống CSDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 
- - Người dùng nhấp chọn "More Actions" của task cụ thể
- - 1. Người dùng nhấp chọn "Update"
- - Người dùng chỉnh sửa thông tin của task
- - 1.1. Người dùng nhấp "Save"
- - 1.2. Người dùng nhấp "Cancel"
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống sẽ hiển thị danh sách các tùy chọn
- - Hệ thống sẽ mở form update để người dùng chỉnh sửa thông tin task
- - Hệ thống sẽ ghi nhận lại thông tin 
- - Hệ thống sẽ cập nhật lại thông tin của task và lưu xuống CSDL
- - Hệ thống sẽ hủy việc ghi nhận</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - 2. Người dùng nhấp chọn "Delete"
- - 2.1. Người dùng nhấp "Yes"
- - 2.2. Người dùng nhấp "No"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống hiển thị hộp thoại xác nhận việc xóa task
- - Hệ thống sẽ thay đổi trạng thái task, lưu xuống CSDL và xóa task trên màn hình
- - Hệ thống giữ nguyên hiện trạng và tắt hộp thoại xác nhận</t>
-  </si>
-  <si>
-    <t>Alternative paths:</t>
-  </si>
-  <si>
-    <t>Không có</t>
-  </si>
-  <si>
-    <t>Exception paths:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Có bug trong hệ thống cản trở việc thực thi của người dùng </t>
-  </si>
-  <si>
-    <t>Extension points:</t>
-  </si>
-  <si>
-    <t>Người dùng vào Project tiếp theo vào Section, vào phần Task để thao tác hoặc vào Project tiếp theo vào phần Task để thao tác</t>
-  </si>
-  <si>
-    <t>Triggers:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người dùng chọn Add hoặc một trong các tùy chọn More Action của task </t>
-  </si>
-  <si>
-    <t>Pre-condition:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người dùng truy cập vào Project hoặc Section cụ thể
-</t>
-  </si>
-  <si>
-    <t>Post-condition:</t>
-  </si>
-  <si>
-    <t>Thông tin task bị thay đổi dưới CSDL</t>
-  </si>
-  <si>
-    <t>Set Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chức năng thiết lập độ ưu tiên của Task </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng chọn Task cần thiết lập độ ưu tiên
- - Hệ thống hiển thị form của người dùng thao tác trên task
- - Người dùng chọn mức độ ưu tiên của Task
- - Hệ thống ghi nhận thông tin của Task
- 1. Người dùng nhấp "Save"
- - Hệ thống lưu mức độ ưu tiên của task xuống CSDL
- 2. Người dùng nhấp "Cancel"
- - Hệ thống sẽ hủy bỏ ghi nhận thông tin task do người dùng nhập vào và không lưu xuống CSDL</t>
-  </si>
-  <si>
-    <t>- Người dùng chọn Task cần thiết lập độ ưu tiên 
-- Người dùng chọn mức độ ưu tiên của Task
- 1. Người dùng nhấp "Save"
- 2. Người dùng nhấp "Cancel"</t>
-  </si>
-  <si>
-    <t>- Hệ thống hiển thị form của người dùng thao tác trên task
- - Hệ thống ghi nhận thông tin của Task 
- - Hệ thống lưu mức độ ưu tiên của task xuống CSDL
- - Hệ thống sẽ hủy bỏ ghi nhận thông tin task do người dùng nhập vào và không lưu xuống CSDL</t>
-  </si>
-  <si>
-    <t>Mức độ ưu tiên mà người dùng thiết lập từ 0-4</t>
-  </si>
-  <si>
-    <t>Người dùng thiết lập mức độ ưu tiên</t>
-  </si>
-  <si>
-    <t>Người dùng truy cập Task</t>
-  </si>
-  <si>
-    <t>Mức độ ưu tiên của Task được lưu xuống CSDL</t>
-  </si>
-  <si>
-    <t>Set Tag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chức năng thiết lập độ phân loại Task </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng chọn Task cần phân loại
- - Hệ thống hiển thị form của người dùng thao tác trên task
- 1. Người dùng chọn phân loại task
- - Hệ thống ghi nhận thông tin của Task
- 1.1. Người dùng nhấp "Save"
- - Hệ thống lưu mức độ ưu tiên của task xuống CSDL
- 1.2. Người dùng nhấp "Cancel"
- - Hệ thống sẽ hủy bỏ ghi nhận thông tin task do người dùng nhập vào và không lưu xuống CSDL
- *
- 2. Người dùng chọn "Add Tag"
- - Hệ thống hiển thị form nhập tên tag
- - Người dùng nhập tên tag
- 2.1. Người dùng nhấn "Save" 
- - Hệ thống lưu Tag mới xuống CSDL
- 2.2. Người dùng nhấn "Cancel"
- - Hệ thống tắt form và không lưu xuống CSDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng chọn Task cần phân loại
- 1. Người dùng chọn phân loại task
- 1.1. Người dùng nhấp "Save"
- 1.2. Người dùng nhấp "Cancel"
- 2. Người dùng chọn "Add Tag"
- 2.1. Người dùng nhấn "Save"
- 2.2. Người dùng nhấn "Cancel"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống hiển thị form của người dùng thao tác trên task
- - Hệ thống ghi nhận thông tin của Task 
- - Hệ thống lưu mức độ ưu tiên của task xuống CSDL
- - Hệ thống sẽ hủy bỏ ghi nhận thông tin task do người dùng nhập vào và không lưu xuống CSDL
- - Hệ thống hiển thị form nhập tên tag
- - Hệ thống lưu Tag mới xuống CSDL
- - Hệ thống tắt form và không lưu xuống CSDL
-</t>
-  </si>
-  <si>
-    <t>Người dùng cài đặt phân loại task</t>
-  </si>
-  <si>
-    <t>Phân loại Task được lưu xuống CSDL</t>
-  </si>
-  <si>
-    <t>Undo Task</t>
-  </si>
-  <si>
-    <t>Chức năng hoàn tác task đã hoàn thành</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng nhấn hoàn thành task
- - Hệ thống thay đổi trạng thái task thành đã hoàn thành và hiển thị hộp thoại Undo
- 1. Người dùng nhấn "Undo"
- - Hệ thống thay đổi trạng thái task thành chưa hoàn thành và không lưu xuống CSDL
- 2. Người dùng nhấn "Cancel " hoặc để hộp thoại tự tắt sau một thời gian
- - Hệ thống thay đổi trạng thái của task thành hoàn thành và lưu xuống CSDL
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng nhấn hoàn thành task
- 1. Người dùng nhấn "Undo
- 2. Người dùng nhấn "Cancel " hoặc để hộp thoại tự tắt sau một thời gian</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống thay đổi trạng thái task thành đã hoàn thành và hiển thị hộp thoại Undo
- - Hệ thống thay đổi trạng thái task thành chưa hoàn thành và không lưu xuống CSDL
- - Hệ thống thay đổi trạng thái của task thành hoàn thành và lưu xuống CSDL</t>
-  </si>
-  <si>
-    <t>Hộp thoại Undo Task tự tắt sau 5 giây</t>
-  </si>
-  <si>
-    <t>Người dùng nhấn Undo</t>
-  </si>
-  <si>
-    <t>Người dùng hoàn thành task</t>
-  </si>
-  <si>
-    <t>Trạng thái task không bị thay đổi sau khi Undo Task</t>
-  </si>
-  <si>
-    <t>Favorite</t>
-  </si>
-  <si>
-    <t>Chức năng đánh dấu những task yêu thích</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấn Task cụ thể
- - Hệ thống hiển thị form task 
- - Người dùng nhấn vào biểu tượng Favaorite
- - Hệ thống lưu trạng thái favorite của task dưới CSDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng nhấn Task cụ thể 
- - Người dùng nhấn vào biểu tượng favorite</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống hiển thị form task 
- - Hệ thống lưu trạng thái favorite của task dưới CSDL</t>
-  </si>
-  <si>
-    <t>Người dùng nhấn biểu tượng Favaorite</t>
-  </si>
-  <si>
-    <t>Người dùng nhấn vào Task</t>
-  </si>
-  <si>
-    <t>Trạng thái task favorite của task bị thay đổi dưới CSDL</t>
-  </si>
-  <si>
-    <t>Drag &amp; Drop</t>
-  </si>
-  <si>
-    <t>Chức năng kéo thả các task trong section hoặc project</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng nhấn Task cụ thể sau đó giữ chuột
- - Hệ thống cho phép di chuyển
- - Người dùng di chuyển task tới vị trí mong muốn
- - Hệ thống di chuyển task trên màn hình theo con trỏ chuột
- - Người dùng thả chuột
- - Hệ thống thay đổi vị trí task dưới CSDL</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng nhấn Task cụ thể sau đó giữ chuột
- - Người dùng di chuyển task tới vị trí mong muốn
- - Người dùng thả chuột</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống cho phép di chuyển
- - Hệ thống di chuyển task trên màn hình theo con trỏ chuột
- - Hệ thống thay đổi vị trí task dưới CSDL</t>
+    <t xml:space="preserve"> - Hệ thống thay đổi vị trí task dưới CSDL</t>
   </si>
   <si>
     <t>Người dùng kéo thả task</t>
@@ -375,7 +742,10 @@
     <t>Người dùng nhấn vào task cần di chuyển</t>
   </si>
   <si>
-    <t>Vị trí các task trong section hoặc project bị thay đổi</t>
+    <t>Vị trí các task trong section bị thay đổi</t>
+  </si>
+  <si>
+    <t>UC 3.10</t>
   </si>
   <si>
     <t>Copy &amp; paste mutiple lines</t>
@@ -384,29 +754,7 @@
     <t>Chức năng tạo nhiều task với một danh sách các task</t>
   </si>
   <si>
-    <t xml:space="preserve"> - Người dùng truy cập vào Section hoặc Project
- - Hệ thống hiển thị danh sách các task
- - Người dùng nhấp vào "Add task" nếu muốn tạo ra task mới
- - Hệ thống hiển thị form người dùng thao tác
- - Người dùng paste danh sách các task vào
- - Hệ thống ghi nhân thông tin
- - Người dùng nhấn "Save"
- - Hệ thống tạo số task tương đương với số lượng của danh sách task paste vào
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng truy cập vào Section hoặc Project
- - Người dùng nhấp vào "Add task" nếu muốn tạo ra task mới
- - Người dùng paste danh sách các task vào
- - Người dùng nhấn "Save"
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống hiển thị danh sách các task
- - Hệ thống hiển thị form người dùng thao tác
- - Hệ thống ghi nhân thông tin
- - Hệ thống tạo số task tương đương với số lượng của danh sách task paste và lưu vào CSDL 
-</t>
+    <t xml:space="preserve"> - Người dùng paste danh sách các task vào</t>
   </si>
   <si>
     <t>Số dòng trong trong khi tạo task sẽ tương ứng với số lượng task</t>
@@ -421,162 +769,228 @@
     <t>Nhiều task được tạo ra và lưu xuống CSDL</t>
   </si>
   <si>
-    <t>Add Website as Task</t>
-  </si>
-  <si>
-    <t>Chức năng kéo chèn đường dẫn website vào task</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng nhấn Task cụ thể
- - Hệ thống hiển thị form người dùng thao tác
- - Người dùng thêm đường dẫn đến website vào task
- - Hệ thông ghi nhận
- - Người dùng nhấn "Save"
- - Hệ thống lưu trữ thông tin xuống CSDL
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng nhấn Task cụ thể
- - Người dùng thêm đường dẫn đến website vào task
- - Người dùng nhấn "Save"</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Hệ thống hiển thị form người dùng thao tác
- - Hệ thông ghi nhận
- - Hệ thống lưu trữ thông tin xuống CSDL</t>
-  </si>
-  <si>
-    <t>Người dùng thêm đường dẫn vào task, lưu lại thì khi nhấn vào đường dẫn thì sẽ mở website đó lên bằng tab mới</t>
-  </si>
-  <si>
-    <t>Người dùng nhập đường dẫn vào task</t>
-  </si>
-  <si>
-    <t>Người dùng vào Task cụ thể</t>
-  </si>
-  <si>
-    <t>Đường dẫn website của task được lưu xuống CSDL</t>
-  </si>
-  <si>
-    <t>Rich Text</t>
-  </si>
-  <si>
-    <t>Chức năng thêm siêu văn bản vào task</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng nhấn Task cụ thể
- - Hệ thống hiển thị form người dùng thao tác
- - Người dùng thêm siêu văn bản vào task
- - Hệ thông ghi nhận
- - Người dùng nhấn "Save"
- - Hệ thống lưu trữ thông tin xuống CSDL
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Người dùng nhấn Task cụ thể
- - Người dùng thêm siêu văn bản vào task
- - Người dùng nhấn "Save"</t>
-  </si>
-  <si>
-    <t>Người dùng thêm siêu văn bản vào task</t>
-  </si>
-  <si>
-    <t>Siêu văn bản của task được lưu xuống CSDL</t>
+    <t>UC 3.15</t>
+  </si>
+  <si>
+    <t>Group by</t>
+  </si>
+  <si>
+    <t>Actor(s):</t>
+  </si>
+  <si>
+    <t>User, Admin</t>
+  </si>
+  <si>
+    <t>Summary:</t>
+  </si>
+  <si>
+    <t>Giúp người dùng có thể gom nhóm thông tin</t>
+  </si>
+  <si>
+    <t>- Người dùng nhấp chọn "Group"</t>
+  </si>
+  <si>
+    <t>- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc gom nhóm</t>
+  </si>
+  <si>
+    <t>- Người dùng nhấp chọn tiêu chí cần gom nhóm</t>
+  </si>
+  <si>
+    <t>- Hệ thống sẽ gom nhóm các thông tin dựa trên tiêu chí mà người dùng đã chọn</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp chọn "Group" ở menu chính của phần mềm bên phải nút "Sort"</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp chọn tiêu chí cần gom nhóm</t>
+  </si>
+  <si>
+    <t>Phải có thông tin trong phần mềm để có thể gom nhóm</t>
+  </si>
+  <si>
+    <t>Hệ thống trả về thông tin mà người dùng gom nhóm</t>
+  </si>
+  <si>
+    <t>UC 3.15.1</t>
+  </si>
+  <si>
+    <t>Group by Section</t>
+  </si>
+  <si>
+    <t>Giúp người dùng có thể gom nhóm thông tin theo từng phần</t>
+  </si>
+  <si>
+    <t>- Người dùng nhấp chọn "group by section"</t>
+  </si>
+  <si>
+    <t>- Hệ thống sẽ gom nhóm các thông tin theo từng phần</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp chọn "Group" ở menu chính của phần mềm bên phải nút "Sort". Người dùng nhấp chọn "group by section "</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp chọn "group by section"</t>
+  </si>
+  <si>
+    <t>Hệ thống trả về thông tin theo từng section cho người dùng</t>
+  </si>
+  <si>
+    <t>UC 3.15.2</t>
+  </si>
+  <si>
+    <t>Group by Priority</t>
+  </si>
+  <si>
+    <t>Giúp người dùng có thể gom nhóm thông tin theo độ ưu tiên</t>
+  </si>
+  <si>
+    <t>- Người dùng nhấp chọn "group by priority"</t>
+  </si>
+  <si>
+    <t>- Hệ thống sẽ gom nhóm các thông tin theo độ ưu tiên</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp chọn "Group" ở menu chính của phần mềm bên phải nút "Sort". Người dùng nhấp chọn "group by priority"</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp chọn "group by priority"</t>
+  </si>
+  <si>
+    <t>Hệ thống trả về thông tin theo độ ưu tiên cho người dùng</t>
+  </si>
+  <si>
+    <t>UC 3.15.3</t>
+  </si>
+  <si>
+    <t>Group by Progress</t>
+  </si>
+  <si>
+    <t>Giúp người dùng có thể gom nhóm thông tin theo tiến độ công việc</t>
+  </si>
+  <si>
+    <t>- Người dùng nhấp chọn "group by progress"</t>
+  </si>
+  <si>
+    <t>- Hệ thống sẽ gom nhóm các thông tin theo tiến độ công việc</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp chọn "Group" ở menu chính của phần mềm bên phải nút "Sort". Người dùng nhấp chọn "group by progress"</t>
+  </si>
+  <si>
+    <t>Người dùng nhấp chọn "group by progress"</t>
+  </si>
+  <si>
+    <t>Hệ thống trả về thông tin theo tiến độ công việc cho người dùng</t>
+  </si>
+  <si>
+    <t>UC 3.15.4</t>
   </si>
   <si>
     <t>Group by Tag</t>
   </si>
   <si>
-    <t>Actor(s):</t>
-  </si>
-  <si>
-    <t>Summary:</t>
-  </si>
-  <si>
     <t>Giúp người dùng có thể gom nhóm thông tin theo loại công việc</t>
   </si>
   <si>
-    <t>- Người dùng nhấp chọn "Group"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc gom nhóm
-- Người dùng nhấp chọn "group by tag"
-- Hệ thống sẽ gom nhóm các thông tin theo loại công việc</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "Group"</t>
-  </si>
-  <si>
-    <t>- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc gom nhóm</t>
-  </si>
-  <si>
     <t>- Người dùng nhấp chọn "group by tag"</t>
   </si>
   <si>
     <t>- Hệ thống sẽ gom nhóm các thông tin theo loại công việc</t>
   </si>
   <si>
-    <t>Lỗi mã nguồn</t>
-  </si>
-  <si>
     <t>Người dùng nhấp chọn "Group" ở menu chính của phần mềm bên phải nút "Sort". Người dùng nhấp chọn "group by tag"</t>
   </si>
   <si>
     <t>Người dùng nhấp chọn "group by tag"</t>
   </si>
   <si>
-    <t>Phải có thông tin trong phần mềm để có thể gom nhóm</t>
-  </si>
-  <si>
     <t>Hệ thống trả về thông tin theo từng loại công việc cho người dùng</t>
   </si>
   <si>
+    <t>UC 3.15.5</t>
+  </si>
+  <si>
     <t>Group by End date</t>
   </si>
   <si>
     <t>Giúp người dùng có thể gom nhóm thông tin theo ngày hết hạn công việc</t>
   </si>
   <si>
-    <t>- Người dùng nhấp chọn "Group by"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc gom nhóm 
-- Người dùng nhấp chọn "group by end date"
-- Hệ thống sẽ hiển thị danh mục các tùy chọn cho "group by end date" bao gồm: "before deadline", "deadline",  "out of deadline"
-*
-- Người dùng nhấp chọn "before deadline"
-- Hệ thống sẽ gom nhóm các task trước ngày hết hạn cho người dùng
-- Người dùng nhấp chọn "deadline"
-- Hệ thống sẽ gom nhóm các task đúng ngày hết hạn cho người dùng
-- Người dùng nhấp chọn "out of deadline"
-- Hệ thống sẽ gom nhóm các task trễ deadline cho người dùng
-*</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "Group by"</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "group by end date"</t>
-  </si>
-  <si>
-    <t>- Hệ thống sẽ hiển thị danh mục các tùy chọn cho "group by end date" bao gồm: "before deadline", "deadline",  "out of deadline"</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "before deadline"</t>
-  </si>
-  <si>
-    <t>- Hệ thống sẽ gom nhóm các task trước ngày hết hạn cho người dùng</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "deadline"</t>
-  </si>
-  <si>
-    <t>- Hệ thống sẽ gom nhóm các task đúng ngày hết hạn cho người dùng</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "out of deadline"</t>
-  </si>
-  <si>
-    <t>- Hệ thống sẽ gom nhóm các task trễ deadline cho người dùng</t>
-  </si>
-  <si>
-    <t>Lỗi mã nguồn hoặc người dùng nhập sai format của ngày hết hạn. Người dùng nhập sai đinh dạng ngày hết hạn</t>
+    <t xml:space="preserve"> - Người dùng nhấp chọn "Group by"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc gom nhóm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Người dùng nhấp chọn "group by end date"</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống sẽ hiển thị danh mục các tùy chọn cho "group by end date" bao gồm: "before deadline", "deadline",  "out of deadline"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> - Người dùng nhấp chọn "before deadline" </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>A1, A2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Hệ thống sẽ gom nhóm các task trước ngày hết hạn cho người dùng</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">A1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Người dùng có thể nhấp chọn "deadline" để gom nhóm các task trước ngày hết hạn</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+A2: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Người dùng  có thể nhấp chọn "out of deadline" để gom nhóm các task trễ deadline</t>
+    </r>
   </si>
   <si>
     <t>Người dùng nhập ngày hết hạn phải đúng định dạng. Người dùng nhập ngày hết hạn theo format yyyy/mm/dd</t>
@@ -591,22 +1005,15 @@
     <t>Hệ thống trả về thông tin công việc theo ngày hết hạn cho người dùng</t>
   </si>
   <si>
+    <t>UC 3.16</t>
+  </si>
+  <si>
     <t>Filter Query</t>
   </si>
   <si>
     <t>Giúp người dùng có thể lọc theo biểu thức chính quy</t>
   </si>
   <si>
-    <t xml:space="preserve">- Người dùng nhấp chọn "icon menu"
-- Hệ thống sẽ hiển thị danh mục các tùy chọn
-- Người dùng nhấp chọn "filter query"
-- Hệ thống sẽ hiển thị 1 ô text để người dùng nhập biểu thức chính quy
-- Người dùng nhập biểu thức chính quy
-- Hệ thống sẽ ghi nhận biểu thức chính quy do người dùng nhập vào
-- Người dùng nhấp "Enter" từ bàn phím
-- Hệ thống sẽ lọc thông tin theo biểu thức chính quy </t>
-  </si>
-  <si>
     <t>- Người dùng nhấp chọn "icon menu"</t>
   </si>
   <si>
@@ -631,9 +1038,6 @@
     <t>- Hệ thống sẽ lọc thông tin theo biểu thức chính quy</t>
   </si>
   <si>
-    <t>Người dùng nhập sai biểu thức chính quy</t>
-  </si>
-  <si>
     <t>Người dùng nhấp vào "icon menu" ở góc trái trên phần mềm</t>
   </si>
   <si>
@@ -646,20 +1050,15 @@
     <t>Hệ thống trả về thông tin công việc sau khi lọc cho người dùng</t>
   </si>
   <si>
+    <t>UC 3.17</t>
+  </si>
+  <si>
     <t>Set Layout</t>
   </si>
   <si>
     <t>Giúp người dùng có thể điều chỉnh giao diện</t>
   </si>
   <si>
-    <t>- Người dùng nhấp chọn "Setting"
-- Hệ thống sẽ hiển thị danh mục các tùy chọn
-- Người dùng nhấp chọn "set layout"
-- Hệ thống sẽ hiển thị thêm 2 mục nhỏ chứa các chế độ layout
-- Người dùng nhấp chọn chế độ layout
-- Hệ thống sẽ thay đổi layout cho phần mềm</t>
-  </si>
-  <si>
     <t>- Người dùng nhấp chọn "Setting"</t>
   </si>
   <si>
@@ -684,20 +1083,15 @@
     <t>Hệ thống trả về giao diện mới theo chế độ người dùng chọn</t>
   </si>
   <si>
+    <t>UC 3.17.1</t>
+  </si>
+  <si>
     <t>Set Layout Board</t>
   </si>
   <si>
     <t>Giúp người dùng có thể thay đổi giao diện phần mềm sang dạng bảng</t>
   </si>
   <si>
-    <t>- Người dùng nhấp chọn "Setting"
-- Hệ thống sẽ hiển thị danh mục các tùy chọn
-- Người dùng nhấp chọn "set layout"
-- Hệ thống sẽ hiển thị thêm 2 mục nhỏ chứa các chế độ layout
-- Người dùng nhấp chọn "set layout board"
-- Hệ thống sẽ thay đổi giao diện phần mềm sang dạng bảng</t>
-  </si>
-  <si>
     <t>- Người dùng nhấp chọn "set layout board"</t>
   </si>
   <si>
@@ -710,6 +1104,9 @@
     <t>Hệ thống thay đổi giao diện phần mềm sang dạng bảng cho người dùng</t>
   </si>
   <si>
+    <t>UC 3.17.2</t>
+  </si>
+  <si>
     <t>Set Layout List</t>
   </si>
   <si>
@@ -725,18 +1122,15 @@
     <t>Hệ thống thay đổi giao diện phần mềm sang dạng danh sách cho người dùng</t>
   </si>
   <si>
+    <t>UC 3.13</t>
+  </si>
+  <si>
     <t>Search information</t>
   </si>
   <si>
     <t>Giúp người dùng có thể tìm kiếm thông tin</t>
   </si>
   <si>
-    <t>- Người dùng nhập thông tin cần tìm kiếm
-- Hệ thống sẽ ghi nhận thông tin mà người dùng nhập vào
-- Người dùng nhấp chọn "Search"
-- Hệ thống sẽ tìm kiếm và trả về thông tin mà người dùng đã nhập</t>
-  </si>
-  <si>
     <t>- Người dùng nhập thông tin cần tìm kiếm</t>
   </si>
   <si>
@@ -758,18 +1152,15 @@
     <t>Hệ thống trả về thông tin mà người dùng tìm kiếm</t>
   </si>
   <si>
+    <t>UC 3.14</t>
+  </si>
+  <si>
     <t>Sort by</t>
   </si>
   <si>
     <t>Giúp người dùng có thể sắp xếp thông tin</t>
   </si>
   <si>
-    <t>- Người dùng nhấp chọn "Sort"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc sắp xếp
-- Người dùng nhấp chọn tiêu chí cần sắp xếp
-- Hệ thống sẽ sắp xếp các thông tin dựa trên tiêu chí mà người dùng đã chọn</t>
-  </si>
-  <si>
     <t>- Người dùng nhấp chọn "Sort"</t>
   </si>
   <si>
@@ -782,9 +1173,6 @@
     <t>- Hệ thống sẽ sắp xếp các thông tin dựa trên tiêu chí mà người dùng đã chọn</t>
   </si>
   <si>
-    <t>Có bug trong phần mềm cản trở việc sắp xếp</t>
-  </si>
-  <si>
     <t>Người dùng nhấp chọn "Sort" ở menu chính của phần mềm bên phải ô tìm kiếm</t>
   </si>
   <si>
@@ -797,18 +1185,13 @@
     <t>Hệ thống trả về thông tin mà người dùng sắp xếp</t>
   </si>
   <si>
+    <t>UC 3.14.1</t>
+  </si>
+  <si>
     <t>Sort by name</t>
   </si>
   <si>
-    <t>Giúp người dùng có thể sắp xếp thông tin theo phạm vi</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "Sort"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc sắp xếp
-- Người dùng nhấp chọn "sort by name"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc sắp xếp cho sort by name
-- Người dùng nhấp chọn tiêu chí cần sắp xếp
-- Hệ thống sẽ sắp xếp các thông tin dựa trên tiêu chí mà người dùng đã chọn</t>
+    <t>Giúp người dùng có thể sắp xếp thông tin theo tên</t>
   </si>
   <si>
     <t>- Người dùng nhấp chọn "sort by name"</t>
@@ -817,132 +1200,16 @@
     <t>- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc sắp xếp cho sort by name</t>
   </si>
   <si>
+    <t>UC 3.14.2</t>
+  </si>
+  <si>
     <t>Sort by date</t>
   </si>
   <si>
     <t>Giúp người dùng có thể sắp xếp thông tin theo ngày</t>
   </si>
   <si>
-    <t>- Người dùng nhấp chọn "Sort"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc sắp xếp
-- Người dùng nhấp chọn "sort by date"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc sắp xếp
-- Người dùng nhấp chọn tiêu chí cần sắp xếp
-- Hệ thống sẽ sắp xếp các thông tin dựa trên tiêu chí mà người dùng đã chọn</t>
-  </si>
-  <si>
     <t>- Người dùng nhấp chọn "sort by date"</t>
-  </si>
-  <si>
-    <t>Group by</t>
-  </si>
-  <si>
-    <t>User, Admin</t>
-  </si>
-  <si>
-    <t>Giúp người dùng có thể gom nhóm thông tin</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "Group"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc gom nhóm
-- Người dùng nhấp chọn tiêu chí cần gom nhóm
-- Hệ thống sẽ gom nhóm các thông tin dựa trên tiêu chí mà người dùng đã chọn</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn tiêu chí cần gom nhóm</t>
-  </si>
-  <si>
-    <t>- Hệ thống sẽ gom nhóm các thông tin dựa trên tiêu chí mà người dùng đã chọn</t>
-  </si>
-  <si>
-    <t>Người dùng nhấp chọn "Group" ở menu chính của phần mềm bên phải nút "Sort"</t>
-  </si>
-  <si>
-    <t>Người dùng nhấp chọn tiêu chí cần gom nhóm</t>
-  </si>
-  <si>
-    <t>Hệ thống trả về thông tin mà người dùng gom nhóm</t>
-  </si>
-  <si>
-    <t>Group by Section</t>
-  </si>
-  <si>
-    <t>Giúp người dùng có thể gom nhóm thông tin theo từng phần</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "Group"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc gom nhóm
-- Người dùng nhấp chọn "group by section"
-- Hệ thống sẽ gom nhóm các thông tin theo từng phần</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "group by section"</t>
-  </si>
-  <si>
-    <t>- Hệ thống sẽ gom nhóm các thông tin theo từng phần</t>
-  </si>
-  <si>
-    <t>Người dùng nhấp chọn "Group" ở menu chính của phần mềm bên phải nút "Sort". Người dùng nhấp chọn "group by section "</t>
-  </si>
-  <si>
-    <t>Người dùng nhấp chọn "group by section"</t>
-  </si>
-  <si>
-    <t>Hệ thống trả về thông tin theo từng section cho người dùng</t>
-  </si>
-  <si>
-    <t>Group by Priority</t>
-  </si>
-  <si>
-    <t>Giúp người dùng có thể gom nhóm thông tin theo độ ưu tiên</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "Group"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc gom nhóm
-- Người dùng nhấp chọn "group by priority"
-- Hệ thống sẽ gom nhóm các thông tin theo độ ưu tiên</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "group by priority"</t>
-  </si>
-  <si>
-    <t>- Hệ thống sẽ gom nhóm các thông tin theo độ ưu tiên</t>
-  </si>
-  <si>
-    <t>Người dùng nhấp chọn "Group" ở menu chính của phần mềm bên phải nút "Sort". Người dùng nhấp chọn "group by priority"</t>
-  </si>
-  <si>
-    <t>Người dùng nhấp chọn "group by priority"</t>
-  </si>
-  <si>
-    <t>Hệ thống trả về thông tin theo độ ưu tiên cho người dùng</t>
-  </si>
-  <si>
-    <t>Group by Progress</t>
-  </si>
-  <si>
-    <t>Giúp người dùng có thể gom nhóm thông tin theo tiến độ công việc</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "Group"
-- Hệ thống sẽ hiển thị danh mục các tiêu chí cho việc gom nhóm
-- Người dùng nhấp chọn "group by progress"
-- Hệ thống sẽ gom nhóm các thông tin theo tiến độ công việc</t>
-  </si>
-  <si>
-    <t>- Người dùng nhấp chọn "group by progress"</t>
-  </si>
-  <si>
-    <t>- Hệ thống sẽ gom nhóm các thông tin theo tiến độ công việc</t>
-  </si>
-  <si>
-    <t>Người dùng nhấp chọn "Group" ở menu chính của phần mềm bên phải nút "Sort". Người dùng nhấp chọn "group by progress"</t>
-  </si>
-  <si>
-    <t>Người dùng nhấp chọn "group by progress"</t>
-  </si>
-  <si>
-    <t>Hệ thống trả về thông tin theo tiến độ công việc cho người dùng</t>
   </si>
 </sst>
 </file>
@@ -950,12 +1217,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -982,6 +1249,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1003,45 +1281,27 @@
     <font>
       <b/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1070,7 +1330,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,6 +1356,37 @@
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1102,36 +1408,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1147,37 +1424,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,43 +1452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1252,37 +1476,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1294,7 +1542,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,13 +1584,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1336,54 +1620,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1401,6 +1655,43 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1464,28 +1755,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1528,6 +1797,52 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1554,8 +1869,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1575,17 +1890,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1605,174 +1925,169 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1781,15 +2096,43 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1800,59 +2143,102 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2115,159 +2501,162 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:D19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="48.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="54.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="57.5714285714286" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="12.75"/>
     <row r="3" ht="32" customHeight="1" spans="2:4">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="15"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" ht="32" customHeight="1" spans="2:4">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-    </row>
-    <row r="5" ht="32" customHeight="1" spans="2:4">
-      <c r="B5" s="13" t="s">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" ht="32" customHeight="1" spans="2:4">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" ht="32" customHeight="1" spans="2:4">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" ht="47.25" spans="2:4">
-      <c r="B8" s="18" t="s">
+    <row r="8" ht="31.5" spans="2:4">
+      <c r="B8" s="27"/>
+      <c r="C8" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" ht="31" customHeight="1" spans="2:4">
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+    </row>
+    <row r="10" ht="30" customHeight="1" spans="2:4">
+      <c r="B10" s="27"/>
+      <c r="C10" s="30" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" ht="248" customHeight="1" spans="2:4">
-      <c r="B9" s="20"/>
-      <c r="C9" s="21" t="s">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:4">
+      <c r="B11" s="27"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="11" t="s">
+    </row>
+    <row r="12" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B12" s="27"/>
+      <c r="C12" s="30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" ht="141.75" spans="2:4">
-      <c r="B10" s="22"/>
-      <c r="C10" s="23" t="s">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B13" s="53"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="24" t="s">
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" ht="252" customHeight="1" spans="2:4">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="23" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:4">
-      <c r="B12" s="13" t="s">
+      <c r="C15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" ht="32" customHeight="1" spans="2:4">
-      <c r="B13" s="13" t="s">
+      <c r="C16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:4">
+      <c r="B17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="15"/>
-    </row>
-    <row r="14" ht="32" customHeight="1" spans="2:4">
-      <c r="B14" s="13" t="s">
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="2:4">
+      <c r="B18" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="15"/>
-    </row>
-    <row r="15" ht="32" customHeight="1" spans="2:4">
-      <c r="B15" s="13" t="s">
+      <c r="C18" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" ht="32" customHeight="1" spans="2:4">
+      <c r="B19" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="15"/>
-    </row>
-    <row r="16" ht="32" customHeight="1" spans="2:4">
-      <c r="B16" s="13" t="s">
+      <c r="C19" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="28"/>
-    </row>
-    <row r="17" ht="32" customHeight="1" spans="2:4">
-      <c r="B17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" s="15"/>
+      <c r="D19" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2275,13 +2664,13 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B7:B13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2291,143 +2680,162 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D14"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
-    <col min="5" max="1024" width="14.4285714285714" style="2"/>
-    <col min="1025" max="16384" width="14.4285714285714" style="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" s="8"/>
-    </row>
-    <row r="2" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B2" s="3" t="s">
+    <row r="2" ht="32" customHeight="1" spans="2:4">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" ht="32" customHeight="1" spans="2:4">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="C3" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="2:4">
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" ht="32" customHeight="1" spans="2:4">
+      <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" ht="32" customHeight="1" spans="2:4">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="79.9" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" ht="79.15" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="2:4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:4">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
+      <c r="C15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="37.35" customHeight="1" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:4">
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="2:4">
+      <c r="B18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2435,13 +2843,13 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2451,18 +2859,371 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ17"/>
+  <dimension ref="B2:D18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="32" customHeight="1" spans="2:4">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" ht="32" customHeight="1" spans="2:4">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="2:4">
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" ht="32" customHeight="1" spans="2:4">
+      <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" ht="32" customHeight="1" spans="2:4">
+      <c r="B6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="2:4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
+      <c r="B10" s="22"/>
+      <c r="D10" s="20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:4">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" ht="31.5" customHeight="1" spans="2:4">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:4">
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="2:4">
+      <c r="B18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C18" sqref="B2:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="32" customHeight="1" spans="2:4">
+      <c r="B2" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" ht="32" customHeight="1" spans="2:4">
+      <c r="B3" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="20"/>
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="2:4">
+      <c r="B4" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" ht="32" customHeight="1" spans="2:4">
+      <c r="B5" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" ht="32" customHeight="1" spans="2:4">
+      <c r="B6" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="2:4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:4">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="2:4">
+      <c r="B12" s="22"/>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:4">
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="2:4">
+      <c r="B18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMJ16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -3497,38 +4258,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -3538,106 +4301,86 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="99.95" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" ht="107.45" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" ht="111.95" customHeight="1" spans="2:4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" ht="107.45" customHeight="1" spans="2:4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" ht="108.95" customHeight="1" spans="2:4">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" ht="32.85" customHeight="1" spans="2:4">
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="10"/>
+      <c r="D10" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="32.1" customHeight="1" spans="2:4">
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="39.6" customHeight="1" spans="2:4">
-      <c r="B13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="48.6" customHeight="1" spans="2:4">
+      <c r="C13" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" ht="32.1" customHeight="1" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="32.1" customHeight="1" spans="2:4">
       <c r="B15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="6"/>
     </row>
     <row r="16" ht="32.1" customHeight="1" spans="2:4">
       <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3645,34 +4388,33 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -4707,38 +5449,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -4748,97 +5492,86 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="79.9" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" ht="67.9" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" ht="71.65" customHeight="1" spans="2:4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" ht="72.4" customHeight="1" spans="2:4">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" ht="30.6" customHeight="1" spans="2:4">
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="10"/>
+      <c r="D10" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" ht="31.35" customHeight="1" spans="2:4">
       <c r="B11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="31.35" customHeight="1" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" ht="31.35" customHeight="1" spans="2:4">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="30.6" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="30.6" customHeight="1" spans="2:4">
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="30.6" customHeight="1" spans="2:4">
+      <c r="C13" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" ht="31.35" customHeight="1" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" ht="30.6" customHeight="1" spans="2:4">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" ht="31.35" customHeight="1" spans="2:4">
       <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" ht="30.6" customHeight="1" spans="2:4">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="31.35" customHeight="1" spans="2:4">
       <c r="B16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4852,28 +5585,27 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -5908,38 +6640,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -5949,88 +6683,86 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="76.15" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" ht="71.65" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" ht="65.65" customHeight="1" spans="2:4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" s="4" t="s">
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="10" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="10"/>
+      <c r="D10" s="6" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="11" ht="32.1" customHeight="1" spans="2:4">
       <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="32.1" customHeight="1" spans="2:4">
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="32.1" customHeight="1" spans="2:4">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" ht="38.1" customHeight="1" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="32.1" customHeight="1" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="32.1" customHeight="1" spans="2:4">
       <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6038,34 +6770,33 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -7100,38 +7831,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -7141,88 +7874,86 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="73.15" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" ht="67.15" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" ht="67.15" customHeight="1" spans="2:4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4"/>
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="10"/>
+      <c r="D10" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="11" ht="32.1" customHeight="1" spans="2:4">
       <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" ht="32.1" customHeight="1" spans="2:4">
       <c r="B12" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="32.1" customHeight="1" spans="2:4">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" ht="36.6" customHeight="1" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="32.1" customHeight="1" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" ht="32.1" customHeight="1" spans="2:4">
       <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7230,34 +7961,202 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="B1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.4285714285714" style="2"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
+    <col min="5" max="1024" width="14.4285714285714" style="2"/>
+    <col min="1025" max="16384" width="14.4285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" s="18"/>
+    </row>
+    <row r="2" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B4" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" ht="37.35" customHeight="1" spans="2:4">
+      <c r="B13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B6:B10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMJ18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -8292,38 +9191,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="32.85" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -8333,88 +9234,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="67.15" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" ht="69.4" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" ht="72.4" customHeight="1" spans="2:4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" ht="32.85" customHeight="1" spans="2:4">
+      <c r="B13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" ht="39.6" customHeight="1" spans="2:4">
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="48.6" customHeight="1" spans="2:4">
+      <c r="B15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D15" s="4"/>
+      <c r="C15" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -8422,190 +9336,33 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D14"/>
+  <dimension ref="A1:AMJ20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5714285714286" defaultRowHeight="12.75" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="14.5714285714286" style="5"/>
-    <col min="2" max="2" width="29.5714285714286" style="5" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="5" customWidth="1"/>
-    <col min="4" max="4" width="63" style="5" customWidth="1"/>
-    <col min="5" max="16384" width="14.5714285714286" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="2" s="5" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" s="5" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" s="5" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B4" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B5" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="15.75" spans="2:4">
-      <c r="B6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" s="5" customFormat="1" ht="80.65" customHeight="1" spans="2:4">
-      <c r="B7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8" s="5" customFormat="1" ht="80.65" customHeight="1" spans="2:4">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" s="5" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="7"/>
-    </row>
-    <row r="10" s="5" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" s="5" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" s="5" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B12" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" s="5" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" s="5" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B7:B8"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AMJ14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -9640,38 +10397,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -9681,79 +10440,115 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="92.45" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" ht="92.45" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B12" s="8"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B13" s="8"/>
+      <c r="C13" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="15" ht="30.6" customHeight="1" spans="2:4">
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="30.6" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" ht="30.6" customHeight="1" spans="2:4">
+      <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="C17" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="30.6" customHeight="1" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" ht="30.6" customHeight="1" spans="2:4">
+      <c r="B19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" ht="30.6" customHeight="1" spans="2:4">
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -9761,34 +10556,184 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="B6:B14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="B2:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" ht="12.75"/>
+    <row r="3" ht="32" customHeight="1" spans="2:4">
+      <c r="B3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="2:4">
+      <c r="B4" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" ht="32" customHeight="1" spans="2:4">
+      <c r="B5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" ht="32" customHeight="1" spans="2:4">
+      <c r="B6" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="2:4">
+      <c r="B8" s="45"/>
+      <c r="C8" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="45"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
+      <c r="B10" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="51"/>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:4">
+      <c r="B11" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="2:4">
+      <c r="B12" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="51"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="B7:B9"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMJ18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -10823,38 +11768,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="4"/>
+        <v>221</v>
+      </c>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -10864,88 +11811,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="86.65" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" ht="86.65" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" ht="86.65" customHeight="1" spans="2:4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="4"/>
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="13" ht="32.1" customHeight="1" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="32.1" customHeight="1" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" ht="32.1" customHeight="1" spans="2:4">
       <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -10953,34 +11913,33 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ15"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -12015,38 +12974,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -12056,88 +13017,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="86.65" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="8" ht="86.65" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="9" ht="86.65" customHeight="1" spans="2:4">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D12" s="4"/>
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="13" ht="32.1" customHeight="1" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="32.1" customHeight="1" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
     </row>
     <row r="15" ht="32.1" customHeight="1" spans="2:4">
       <c r="B15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12145,181 +13119,33 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B1:D13"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
-  <cols>
-    <col min="2" max="2" width="53.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="51.7142857142857" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="14.25" customHeight="1"/>
-    <row r="2" ht="32" customHeight="1" spans="2:4">
-      <c r="B2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" ht="32" customHeight="1" spans="2:4">
-      <c r="B3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" ht="32" customHeight="1" spans="2:4">
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" ht="32" customHeight="1" spans="2:4">
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" ht="32" customHeight="1" spans="2:4">
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="157.5" spans="2:4">
-      <c r="B7" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="32" customHeight="1" spans="2:4">
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" ht="32" customHeight="1" spans="2:4">
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="2:4">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="32" customHeight="1" spans="2:4">
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:4">
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" ht="32" customHeight="1" spans="2:4">
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AMJ14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -13354,38 +14180,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" s="4"/>
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="32.85" customHeight="1" spans="2:4">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -13395,79 +14223,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="86.65" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" ht="86.65" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="9" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="D12" s="4"/>
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="13" ht="32.1" customHeight="1" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="32.1" customHeight="1" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -13475,34 +14325,198 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ14"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.5714285714286" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="14.5714285714286" style="11"/>
+    <col min="2" max="2" width="25.2857142857143" style="11" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="11" customWidth="1"/>
+    <col min="5" max="16384" width="14.5714285714286" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="11" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" s="11" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" s="11" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="11" customFormat="1" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="15"/>
+      <c r="C7" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="16"/>
+    </row>
+    <row r="8" s="11" customFormat="1" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="15"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="15"/>
+      <c r="C9" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" s="11" customFormat="1" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" s="11" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" s="11" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" s="11" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" s="11" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" s="11" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" s="11" customFormat="1" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B6:B10"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AMJ16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -14537,38 +15551,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -14578,79 +15594,87 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="86.65" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" ht="82.9" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" ht="31.35" customHeight="1" spans="2:4">
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="31.35" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="31.35" customHeight="1" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="31.35" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" ht="31.35" customHeight="1" spans="2:4">
-      <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" ht="31.35" customHeight="1" spans="2:4">
+      <c r="C13" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" ht="32.1" customHeight="1" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -14658,34 +15682,33 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ14"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -15720,38 +16743,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -15761,79 +16786,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="81.4" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" ht="81.4" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="38.1" customHeight="1" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="D12" s="4"/>
+    <row r="7" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="13" ht="32.1" customHeight="1" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="32.1" customHeight="1" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15841,34 +16888,33 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ14"/>
+  <dimension ref="A1:AMJ18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="14.4285714285714" style="2"/>
-    <col min="2" max="2" width="29.5714285714286" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.7142857142857" style="2" customWidth="1"/>
-    <col min="4" max="4" width="63" style="2" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" style="2" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" style="2" customWidth="1"/>
     <col min="5" max="1024" width="14.4285714285714" style="2"/>
     <col min="1025" max="16384" width="14.4285714285714" style="1"/>
   </cols>
@@ -16903,38 +17949,40 @@
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32.1" customHeight="1" spans="2:4">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="32.1" customHeight="1" spans="2:4">
       <c r="B4" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="32.1" customHeight="1" spans="2:4">
       <c r="B5" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="D5" s="4"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -16944,79 +17992,101 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="102.2" customHeight="1" spans="2:4">
-      <c r="B7" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" ht="88.9" customHeight="1" spans="2:4">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>227</v>
+    <row r="7" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B8" s="8"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="6" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="9" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" ht="36.6" customHeight="1" spans="2:4">
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" ht="32.1" customHeight="1" spans="2:4">
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" ht="31.05" customHeight="1" spans="2:4">
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="13" ht="32.1" customHeight="1" spans="2:4">
       <c r="B13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" ht="32.1" customHeight="1" spans="2:4">
       <c r="B14" s="3" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" ht="32.1" customHeight="1" spans="2:4">
+      <c r="B18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17024,13 +18094,13 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
-    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17040,143 +18110,162 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="51.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="60.4285714285714" customWidth="1"/>
-    <col min="4" max="4" width="50.4285714285714" customWidth="1"/>
+    <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="32" customHeight="1" spans="2:4">
-      <c r="B2" s="9" t="s">
+    <row r="2" ht="12.75"/>
+    <row r="3" ht="32" customHeight="1" spans="2:4">
+      <c r="B3" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" ht="32" customHeight="1" spans="2:4">
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="33"/>
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="2:4">
+      <c r="B4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="33"/>
+    </row>
+    <row r="5" ht="32" customHeight="1" spans="2:4">
+      <c r="B5" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" ht="32" customHeight="1" spans="2:4">
+      <c r="B6" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="2:4">
+      <c r="B8" s="37"/>
+      <c r="C8" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" ht="32" customHeight="1" spans="2:4">
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" ht="32" customHeight="1" spans="2:4">
-      <c r="B5" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="D8" s="39"/>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" ht="32" customHeight="1" spans="2:4">
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" ht="283.5" spans="2:4">
-      <c r="B7" s="10" t="s">
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
+      <c r="B10" s="37"/>
+      <c r="C10" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D10" s="39"/>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:4">
+      <c r="B11" s="40"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="10" t="s">
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="2:4">
+      <c r="B12" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="41" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" ht="32" customHeight="1" spans="2:4">
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="33"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" ht="32" customHeight="1" spans="2:4">
-      <c r="B9" s="9" t="s">
+      <c r="C14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="2:4">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="32" customHeight="1" spans="2:4">
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="C15" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:4">
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" ht="32" customHeight="1" spans="2:4">
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D16" s="43"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:4">
+      <c r="B17" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="11">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="B7:B11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17186,143 +18275,190 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="54.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="64.1428571428571" customWidth="1"/>
-    <col min="4" max="4" width="43.2857142857143" customWidth="1"/>
+    <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="32" customHeight="1" spans="2:4">
-      <c r="B2" s="9" t="s">
+    <row r="2" ht="12.75"/>
+    <row r="3" ht="32" customHeight="1" spans="2:4">
+      <c r="B3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" ht="32" customHeight="1" spans="2:4">
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" ht="32" customHeight="1" spans="2:4">
+      <c r="B4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" ht="32" customHeight="1" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" ht="32" customHeight="1" spans="2:4">
+      <c r="B5" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" ht="32" customHeight="1" spans="2:4">
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" ht="32" customHeight="1" spans="2:4">
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" ht="32" customHeight="1" spans="2:4">
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C7" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="23" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="173.25" spans="2:4">
-      <c r="B7" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="10" t="s">
+    <row r="8" ht="32" customHeight="1" spans="2:4">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" ht="32" customHeight="1" spans="2:4">
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="29"/>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
+      <c r="B10" s="27"/>
+      <c r="C10" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:4">
+      <c r="B11" s="27"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="2:4">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="27"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:4">
+      <c r="B17" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="2:4">
+      <c r="B18" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" ht="32" customHeight="1" spans="2:4">
-      <c r="B9" s="9" t="s">
+      <c r="C18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" ht="32" customHeight="1" spans="2:4">
+      <c r="B19" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="2:4">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="32" customHeight="1" spans="2:4">
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:4">
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" ht="32" customHeight="1" spans="2:4">
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="C19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" ht="32" customHeight="1" spans="2:4">
+      <c r="B20" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21" ht="32" customHeight="1" spans="2:4">
+      <c r="B21" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="C2:D2"/>
+  <mergeCells count="11">
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="B7:B15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17332,143 +18468,175 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D13"/>
+  <dimension ref="B1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="43.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="52.8571428571429" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" ht="14.25" customHeight="1"/>
     <row r="2" ht="32" customHeight="1" spans="2:4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="C2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="2:4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="C3" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" ht="32" customHeight="1" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" ht="32" customHeight="1" spans="2:4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="C5" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" ht="32" customHeight="1" spans="2:4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="78.75" spans="2:4">
-      <c r="B7" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="10" t="s">
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="2:4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:4">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="2:4">
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:4">
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="8" ht="32" customHeight="1" spans="2:4">
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" ht="32" customHeight="1" spans="2:4">
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="2:4">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="32" customHeight="1" spans="2:4">
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:4">
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" ht="32" customHeight="1" spans="2:4">
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="2:4">
+      <c r="B18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17478,143 +18646,174 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="42.7142857142857" customWidth="1"/>
-    <col min="3" max="3" width="54.5714285714286" customWidth="1"/>
-    <col min="4" max="4" width="58.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="32" customHeight="1" spans="2:4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="2:4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="C3" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" ht="32" customHeight="1" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" ht="32" customHeight="1" spans="2:4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="C5" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" ht="32" customHeight="1" spans="2:4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="146" customHeight="1" spans="2:4">
-      <c r="B7" s="10" t="s">
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="2:4">
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="10" t="s">
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="8" ht="32" customHeight="1" spans="2:4">
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
+    <row r="11" ht="32" customHeight="1" spans="2:4">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="2:4">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" ht="32" customHeight="1" spans="2:4">
-      <c r="B9" s="9" t="s">
+      <c r="C15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="2:4">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="32" customHeight="1" spans="2:4">
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:4">
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" ht="32" customHeight="1" spans="2:4">
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="C16" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:4">
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="2:4">
+      <c r="B18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17624,143 +18823,176 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="39.4285714285714" customWidth="1"/>
-    <col min="3" max="3" width="60.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="55.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="32" customHeight="1" spans="2:4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="C2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="2:4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="C3" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" ht="32" customHeight="1" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" ht="32" customHeight="1" spans="2:4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="C5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" ht="32" customHeight="1" spans="2:4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="227" customHeight="1" spans="2:4">
-      <c r="B7" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>77</v>
-      </c>
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" ht="32" customHeight="1" spans="2:4">
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="31.5" spans="2:4">
+      <c r="B10" s="22"/>
+      <c r="C10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" ht="30" customHeight="1" spans="2:4">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:4">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" ht="32" customHeight="1" spans="2:4">
-      <c r="B9" s="9" t="s">
+      <c r="C15" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="2:4">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="32" customHeight="1" spans="2:4">
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:4">
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" ht="32" customHeight="1" spans="2:4">
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="C16" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:4">
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="2:4">
+      <c r="B18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17770,143 +19002,160 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+      <selection activeCell="C16" sqref="B2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="36.5714285714286" customWidth="1"/>
-    <col min="3" max="3" width="54.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="49.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="32" customHeight="1" spans="2:4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="C2" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="2:4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="C3" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" ht="32" customHeight="1" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" ht="32" customHeight="1" spans="2:4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="C5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" ht="32" customHeight="1" spans="2:4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="157.5" spans="2:4">
-      <c r="B7" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>86</v>
-      </c>
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" ht="32" customHeight="1" spans="2:4">
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:4">
+      <c r="B11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" ht="32" customHeight="1" spans="2:4">
+      <c r="B12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" ht="32" customHeight="1" spans="2:4">
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="C13" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="2:4">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="32" customHeight="1" spans="2:4">
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:4">
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" ht="32" customHeight="1" spans="2:4">
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="C14" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="20"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B6:B10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -17916,143 +19165,176 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="37.2857142857143" customWidth="1"/>
-    <col min="3" max="3" width="41.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="45.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
+    <col min="3" max="4" width="40.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="32" customHeight="1" spans="2:4">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10"/>
+      <c r="C2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="2:4">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="10"/>
+      <c r="C3" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="20"/>
     </row>
     <row r="4" ht="32" customHeight="1" spans="2:4">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" ht="32" customHeight="1" spans="2:4">
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="10"/>
+      <c r="C5" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" ht="32" customHeight="1" spans="2:4">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" ht="157.5" spans="2:4">
-      <c r="B7" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>86</v>
-      </c>
+    <row r="7" ht="32" customHeight="1" spans="2:4">
+      <c r="B7" s="22"/>
+      <c r="C7" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" ht="32" customHeight="1" spans="2:4">
-      <c r="B8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="10" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="2:4">
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="20"/>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="2:4">
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="2:4">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" ht="30" customHeight="1" spans="2:4">
+      <c r="B12" s="24"/>
+      <c r="C12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" ht="32" customHeight="1" spans="2:4">
+      <c r="B13" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" ht="32" customHeight="1" spans="2:4">
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" ht="32" customHeight="1" spans="2:4">
+      <c r="B15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" ht="32" customHeight="1" spans="2:4">
-      <c r="B9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="C15" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" ht="32" customHeight="1" spans="2:4">
+      <c r="B16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" ht="32" customHeight="1" spans="2:4">
-      <c r="B10" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" ht="32" customHeight="1" spans="2:4">
-      <c r="B11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" ht="32" customHeight="1" spans="2:4">
-      <c r="B12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" ht="32" customHeight="1" spans="2:4">
-      <c r="B13" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="10"/>
+      <c r="C16" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="20"/>
+    </row>
+    <row r="17" ht="32" customHeight="1" spans="2:4">
+      <c r="B17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" ht="32" customHeight="1" spans="2:4">
+      <c r="B18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="B6:B12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
